--- a/assets/emails.xlsx
+++ b/assets/emails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5833724-E1F1-684E-85EB-8ECAB76FA337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A2CCD3-4853-2945-B26C-311743D3F86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{BF85591F-3709-4440-84ED-59AB1FA4E7D7}"/>
+    <workbookView xWindow="33900" yWindow="2000" windowWidth="28040" windowHeight="15880" xr2:uid="{BF85591F-3709-4440-84ED-59AB1FA4E7D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
